--- a/productImportExample2.xlsx
+++ b/productImportExample2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.gao\Downloads\cFarm\productImport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.gao\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="78">
   <si>
     <t>product_id</t>
   </si>
@@ -224,9 +224,6 @@
     <t>1,4,5,103,409,511</t>
   </si>
   <si>
-    <t>45,265,550</t>
-  </si>
-  <si>
     <t>View and buy SRT1720 from ChemFarm, the leading supplier of biochemicals</t>
   </si>
   <si>
@@ -252,6 +249,21 @@
   </si>
   <si>
     <t>View and buy MK-5108 (VX-689) from ChemFarm, the leading supplier of biochemicals</t>
+  </si>
+  <si>
+    <t>percentage</t>
+  </si>
+  <si>
+    <t>multiplier</t>
+  </si>
+  <si>
+    <t>45;265;550</t>
+  </si>
+  <si>
+    <t>1,0.8,0.5</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
   </si>
 </sst>
 </file>
@@ -635,10 +647,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,13 +659,16 @@
     <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.44140625" customWidth="1"/>
+    <col min="13" max="13" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -691,29 +706,35 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2"/>
+      <c r="V1" s="2"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -730,7 +751,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>20</v>
@@ -748,28 +769,34 @@
         <v>25</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="1">
+      <c r="P2" s="1">
         <v>1</v>
       </c>
-      <c r="O2" s="1">
+      <c r="Q2" s="1">
         <v>9</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -786,7 +813,7 @@
         <v>31</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>29</v>
@@ -802,28 +829,30 @@
         <v>25</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M3" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="1">
-        <v>1</v>
-      </c>
-      <c r="O3" s="1">
-        <v>9</v>
-      </c>
-      <c r="P3" s="1" t="s">
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -840,7 +869,7 @@
         <v>36</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>34</v>
@@ -856,28 +885,30 @@
         <v>25</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N4" s="1">
-        <v>1</v>
-      </c>
-      <c r="O4" s="1">
-        <v>9</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -894,7 +925,7 @@
         <v>41</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>39</v>
@@ -910,28 +941,30 @@
         <v>25</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-      <c r="O5" s="1">
-        <v>9</v>
-      </c>
-      <c r="P5" s="1" t="s">
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R5" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -948,7 +981,7 @@
         <v>45</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>43</v>
@@ -964,28 +997,30 @@
         <v>25</v>
       </c>
       <c r="L6" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1">
-        <v>9</v>
-      </c>
-      <c r="P6" s="1" t="s">
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0</v>
+      </c>
+      <c r="R6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1002,7 +1037,7 @@
         <v>49</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>47</v>
@@ -1018,28 +1053,30 @@
         <v>25</v>
       </c>
       <c r="L7" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M7" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-      <c r="O7" s="1">
-        <v>9</v>
-      </c>
-      <c r="P7" s="1" t="s">
+      <c r="P7" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0</v>
+      </c>
+      <c r="R7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1056,7 +1093,7 @@
         <v>53</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>51</v>
@@ -1072,28 +1109,30 @@
         <v>25</v>
       </c>
       <c r="L8" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-      <c r="O8" s="1">
-        <v>9</v>
-      </c>
-      <c r="P8" s="1" t="s">
+      <c r="P8" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="S8" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="R8" s="2" t="s">
+      <c r="T8" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1110,7 +1149,7 @@
         <v>57</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>55</v>
@@ -1126,28 +1165,30 @@
         <v>25</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-      <c r="O9" s="1">
-        <v>9</v>
-      </c>
-      <c r="P9" s="1" t="s">
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0</v>
+      </c>
+      <c r="R9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="S9" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="R9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1164,7 +1205,7 @@
         <v>61</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>59</v>
@@ -1180,24 +1221,26 @@
         <v>25</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="M10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-      <c r="O10" s="1">
-        <v>9</v>
-      </c>
-      <c r="P10" s="1" t="s">
+      <c r="P10" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="S10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="R10" s="2" t="s">
+      <c r="T10" s="2" t="s">
         <v>63</v>
       </c>
     </row>

--- a/productImportExample2.xlsx
+++ b/productImportExample2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.gao\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sale\Documents\ChemFarmImports\Products\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{574EE27B-77DE-4CBA-9B5F-EB094B936A79}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16788" windowHeight="7632"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16788" windowHeight="7632" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -269,7 +270,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -646,11 +647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,7 +740,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>20</v>
@@ -801,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>29</v>
@@ -857,7 +858,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>34</v>
@@ -913,7 +914,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>39</v>
@@ -969,7 +970,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>43</v>
@@ -1025,7 +1026,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>47</v>
@@ -1081,7 +1082,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>51</v>
@@ -1137,7 +1138,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>55</v>
@@ -1193,7 +1194,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>59</v>
